--- a/SchedulingData/dynamic13/pso/scheduling2_15.xlsx
+++ b/SchedulingData/dynamic13/pso/scheduling2_15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,192 +462,192 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>241.44</v>
+        <v>223.3</v>
       </c>
       <c r="D2" t="n">
-        <v>283.94</v>
+        <v>296.3</v>
       </c>
       <c r="E2" t="n">
-        <v>10.416</v>
+        <v>10.56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>205.48</v>
+        <v>213.42</v>
       </c>
       <c r="D3" t="n">
-        <v>258.82</v>
+        <v>259.48</v>
       </c>
       <c r="E3" t="n">
-        <v>11.788</v>
+        <v>15.672</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>258.82</v>
+        <v>230.28</v>
       </c>
       <c r="D4" t="n">
-        <v>316.32</v>
+        <v>295.48</v>
       </c>
       <c r="E4" t="n">
-        <v>8.148</v>
+        <v>13.092</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>261.66</v>
+        <v>206.68</v>
       </c>
       <c r="D5" t="n">
-        <v>301.82</v>
+        <v>266.18</v>
       </c>
       <c r="E5" t="n">
-        <v>13.428</v>
+        <v>14.892</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>207.7</v>
+        <v>295.48</v>
       </c>
       <c r="D6" t="n">
-        <v>243.96</v>
+        <v>365.18</v>
       </c>
       <c r="E6" t="n">
-        <v>17.644</v>
+        <v>9.252000000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>301.82</v>
+        <v>259.48</v>
       </c>
       <c r="D7" t="n">
-        <v>390.58</v>
+        <v>319.8</v>
       </c>
       <c r="E7" t="n">
-        <v>9.632</v>
+        <v>12.24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>234.5</v>
+        <v>296.3</v>
       </c>
       <c r="D8" t="n">
-        <v>298.16</v>
+        <v>323.5</v>
       </c>
       <c r="E8" t="n">
-        <v>14.304</v>
+        <v>8.48</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>228.42</v>
+        <v>268.86</v>
       </c>
       <c r="D9" t="n">
-        <v>274.62</v>
+        <v>301.86</v>
       </c>
       <c r="E9" t="n">
-        <v>11.708</v>
+        <v>13.444</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>298.16</v>
+        <v>323.5</v>
       </c>
       <c r="D10" t="n">
-        <v>352.86</v>
+        <v>376.2</v>
       </c>
       <c r="E10" t="n">
-        <v>10.464</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>283.94</v>
+        <v>376.2</v>
       </c>
       <c r="D11" t="n">
-        <v>319</v>
+        <v>430.4</v>
       </c>
       <c r="E11" t="n">
-        <v>8.039999999999999</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="12">
@@ -656,55 +656,55 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>316.32</v>
+        <v>430.4</v>
       </c>
       <c r="D12" t="n">
-        <v>363.08</v>
+        <v>513.92</v>
       </c>
       <c r="E12" t="n">
-        <v>5.112</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>363.08</v>
+        <v>365.18</v>
       </c>
       <c r="D13" t="n">
-        <v>440.9</v>
+        <v>443.54</v>
       </c>
       <c r="E13" t="n">
-        <v>1.92</v>
+        <v>4.996</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>440.9</v>
+        <v>266.18</v>
       </c>
       <c r="D14" t="n">
-        <v>518.96</v>
+        <v>323.88</v>
       </c>
       <c r="E14" t="n">
-        <v>30</v>
+        <v>11.252</v>
       </c>
     </row>
     <row r="15">
@@ -713,185 +713,185 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>243.96</v>
+        <v>239.44</v>
       </c>
       <c r="D15" t="n">
-        <v>316.66</v>
+        <v>299.42</v>
       </c>
       <c r="E15" t="n">
-        <v>12.484</v>
+        <v>13.668</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>390.58</v>
+        <v>319.8</v>
       </c>
       <c r="D16" t="n">
-        <v>459.36</v>
+        <v>372</v>
       </c>
       <c r="E16" t="n">
-        <v>6.824</v>
+        <v>8.16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>274.62</v>
+        <v>299.42</v>
       </c>
       <c r="D17" t="n">
-        <v>335.22</v>
+        <v>364.88</v>
       </c>
       <c r="E17" t="n">
-        <v>7.288</v>
+        <v>9.731999999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>319</v>
+        <v>301.86</v>
       </c>
       <c r="D18" t="n">
-        <v>366</v>
+        <v>356.86</v>
       </c>
       <c r="E18" t="n">
-        <v>4.96</v>
+        <v>11.044</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>366</v>
+        <v>356.86</v>
       </c>
       <c r="D19" t="n">
-        <v>411.3</v>
+        <v>408.96</v>
       </c>
       <c r="E19" t="n">
-        <v>2.56</v>
+        <v>7.964</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>335.22</v>
+        <v>443.54</v>
       </c>
       <c r="D20" t="n">
-        <v>377.42</v>
+        <v>478.6</v>
       </c>
       <c r="E20" t="n">
-        <v>5.208</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>518.96</v>
+        <v>408.96</v>
       </c>
       <c r="D21" t="n">
-        <v>558.9400000000001</v>
+        <v>453.82</v>
       </c>
       <c r="E21" t="n">
-        <v>27.192</v>
+        <v>5.588</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>459.36</v>
+        <v>364.88</v>
       </c>
       <c r="D22" t="n">
-        <v>511.26</v>
+        <v>407</v>
       </c>
       <c r="E22" t="n">
-        <v>3.744</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>377.42</v>
+        <v>453.82</v>
       </c>
       <c r="D23" t="n">
-        <v>441.64</v>
+        <v>513.2</v>
       </c>
       <c r="E23" t="n">
-        <v>2.876</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>411.3</v>
+        <v>513.2</v>
       </c>
       <c r="D24" t="n">
-        <v>497.68</v>
+        <v>579.64</v>
       </c>
       <c r="E24" t="n">
         <v>30</v>
@@ -899,78 +899,78 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>497.68</v>
+        <v>579.64</v>
       </c>
       <c r="D25" t="n">
-        <v>549.16</v>
+        <v>614.72</v>
       </c>
       <c r="E25" t="n">
-        <v>27.032</v>
+        <v>27.192</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>316.66</v>
+        <v>478.6</v>
       </c>
       <c r="D26" t="n">
-        <v>394.16</v>
+        <v>550.36</v>
       </c>
       <c r="E26" t="n">
-        <v>9.304</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>394.16</v>
+        <v>550.36</v>
       </c>
       <c r="D27" t="n">
-        <v>459.16</v>
+        <v>618.26</v>
       </c>
       <c r="E27" t="n">
-        <v>4.924</v>
+        <v>26.88</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>352.86</v>
+        <v>513.92</v>
       </c>
       <c r="D28" t="n">
-        <v>393.28</v>
+        <v>553.9</v>
       </c>
       <c r="E28" t="n">
-        <v>7.552</v>
+        <v>27.192</v>
       </c>
     </row>
     <row r="29">
@@ -979,41 +979,41 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>441.64</v>
+        <v>323.88</v>
       </c>
       <c r="D29" t="n">
-        <v>512.6900000000001</v>
+        <v>367.44</v>
       </c>
       <c r="E29" t="n">
-        <v>30</v>
+        <v>8.516</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>512.6900000000001</v>
+        <v>407</v>
       </c>
       <c r="D30" t="n">
-        <v>560.17</v>
+        <v>450.54</v>
       </c>
       <c r="E30" t="n">
-        <v>26.932</v>
+        <v>3.916</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1021,162 +1021,162 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>511.26</v>
+        <v>553.9</v>
       </c>
       <c r="D31" t="n">
-        <v>561.6799999999999</v>
+        <v>614.3200000000001</v>
       </c>
       <c r="E31" t="n">
-        <v>0.832</v>
+        <v>24.28</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>561.6799999999999</v>
+        <v>367.44</v>
       </c>
       <c r="D32" t="n">
-        <v>646.8200000000001</v>
+        <v>397.16</v>
       </c>
       <c r="E32" t="n">
-        <v>30</v>
+        <v>6.184</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>393.28</v>
+        <v>372</v>
       </c>
       <c r="D33" t="n">
-        <v>458.04</v>
+        <v>467.06</v>
       </c>
       <c r="E33" t="n">
-        <v>5.176</v>
+        <v>4.744</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>549.16</v>
+        <v>618.26</v>
       </c>
       <c r="D34" t="n">
-        <v>597.0599999999999</v>
+        <v>681.16</v>
       </c>
       <c r="E34" t="n">
-        <v>24.872</v>
+        <v>23.7</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>646.8200000000001</v>
+        <v>467.06</v>
       </c>
       <c r="D35" t="n">
-        <v>706.74</v>
+        <v>542.84</v>
       </c>
       <c r="E35" t="n">
-        <v>27.668</v>
+        <v>1.776</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>558.9400000000001</v>
+        <v>542.84</v>
       </c>
       <c r="D36" t="n">
-        <v>603.84</v>
+        <v>621.09</v>
       </c>
       <c r="E36" t="n">
-        <v>24.332</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>459.16</v>
+        <v>397.16</v>
       </c>
       <c r="D37" t="n">
-        <v>491.48</v>
+        <v>467.12</v>
       </c>
       <c r="E37" t="n">
-        <v>2.332</v>
+        <v>3.808</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>603.84</v>
+        <v>467.12</v>
       </c>
       <c r="D38" t="n">
-        <v>673.12</v>
+        <v>522.4400000000001</v>
       </c>
       <c r="E38" t="n">
-        <v>21.524</v>
+        <v>0.896</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>491.48</v>
+        <v>522.4400000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>568.62</v>
+        <v>607.25</v>
       </c>
       <c r="E39" t="n">
         <v>30</v>
@@ -1188,55 +1188,93 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>568.62</v>
+        <v>450.54</v>
       </c>
       <c r="D40" t="n">
-        <v>628.22</v>
+        <v>523.66</v>
       </c>
       <c r="E40" t="n">
-        <v>26.7</v>
+        <v>0.724</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>560.17</v>
+        <v>523.66</v>
       </c>
       <c r="D41" t="n">
-        <v>635.4299999999999</v>
+        <v>604.11</v>
       </c>
       <c r="E41" t="n">
-        <v>23.516</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
+        <v>6</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>pond37</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>604.11</v>
+      </c>
+      <c r="D42" t="n">
+        <v>656.61</v>
+      </c>
+      <c r="E42" t="n">
+        <v>26.92</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>pond30</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>621.09</v>
+      </c>
+      <c r="D43" t="n">
+        <v>661.21</v>
+      </c>
+      <c r="E43" t="n">
+        <v>27.668</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
         <v>3</v>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>pond10</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>635.4299999999999</v>
-      </c>
-      <c r="D42" t="n">
-        <v>695.9299999999999</v>
-      </c>
-      <c r="E42" t="n">
-        <v>21.096</v>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>pond6</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>607.25</v>
+      </c>
+      <c r="D44" t="n">
+        <v>662.65</v>
+      </c>
+      <c r="E44" t="n">
+        <v>27.14</v>
       </c>
     </row>
   </sheetData>
